--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmontel/Documents/dev/FSE/it-fse-accreditamento/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45094D63-DF10-CB47-BCCF-0482222F039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51463C16-CBF1-6440-85B2-1FCE30497DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="23360" windowWidth="30640" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="23160" windowWidth="33400" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="401">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1912,42 +1912,6 @@
     <t>A fronte di un timeout nell'invio viene generata una Exception che viene gestita dall'applicativo</t>
   </si>
   <si>
-    <t>Il campo person_id non è stato compilato. Viene generato un errore di token di tipo: "/msg/jwt-validation", che dice:  "Il campo person_id non è valorizzato"</t>
-  </si>
-  <si>
-    <t>E'stato valorizzato il campo  purpose_of_use con il valore UNKNOWN. Viene generatoun  errore di token di tipo: "/msg/jwt-validation", che dice "Il campo purpose_of_use non è corretto"</t>
-  </si>
-  <si>
-    <t>E' stato immesso il codice fiscale errato: "dxxrxx46R24G729U". Viene generato l'errore: "Errore-46| codice fiscale 'dxxrxx46R24G729U' cittadino ed operatore: 16 cifre [A-Z0-9]{16}"</t>
-  </si>
-  <si>
-    <t>E'stato inserito un confidentialityCode code="R". Viene generato l'errore: "ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere  l'attributo @code  valorizzato con 'N' o 'V',  il suo @codeSystem  con '2.16.840.1.113883.5.25'"</t>
-  </si>
-  <si>
-    <t>Viene omesso l'elemento city e si ottiene l'errore: "ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'."</t>
-  </si>
-  <si>
-    <t>Viene omesso l'elemento given e si ottiene l'errore "ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'"</t>
-  </si>
-  <si>
-    <t>Viene popolato il campo code con il valore "NB". Si ottiene l'errore di vocabolario: "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]"</t>
-  </si>
-  <si>
-    <t>Viene valorizzato il campo code con il valore non previsto: "FSE-Test-11". Viene generato l'errore: "ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR'"</t>
-  </si>
-  <si>
-    <t>Viene popolato il campo priorityCode con il valore non previsto: "Test-12". Viene generato l'errore: "ERRORE-39| ClinicalDocument/infulfillmentOf/order/priorityCode DEVE avere l'attributo code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM'"</t>
-  </si>
-  <si>
-    <t>Nella sezione inFulfillmentOf viene omesso l'elemento order/id. Viene generato un errore sintattico dove è richiesto la valorizzazione del campo id</t>
-  </si>
-  <si>
-    <t>Viene omesso il contenuto del campo code relativo alle sezioni degli esami eseguiti. Viene generato un errore sintattico che notifica che il valore '' non rispetta il pattern '[^\s]+'</t>
-  </si>
-  <si>
-    <t>La sezione code=18782-3 contenente il referto non viene valorizzata. Vengono sollevati due errori: "[ERRORE-b4| Sezione Referto: DEVE essere presente la sezione "Referto".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]"</t>
-  </si>
-  <si>
     <t>Il test non è supportato in quanto per l'utente non è possibile indicare quali precedenti esami eseguiti hanno contribuito alla formulazione del referto. L'utente può vederli ma non può selezionarli ai fini di quanto richiesto in questo contesto.</t>
   </si>
   <si>
@@ -1960,9 +1924,6 @@
     <t>Il test non può essere completamente validato in quanto l'applicazione non gestisce le codifiche LOINC relative al quesito diagnostico.</t>
   </si>
   <si>
-    <t>Il campo code viene valorizzato con il valore non previsto "FSE-Test-11". Viene generato l'errore :"ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR'"</t>
-  </si>
-  <si>
     <t>Riportato errore validazione</t>
   </si>
   <si>
@@ -1975,9 +1936,6 @@
     <t>Viene sollevato un errore relativo alla validazione del token JWT in quanto vengono omessi tutti gli identificativi del paziente compreso il codice fiscale che invece è mandatorio per la validazione del token JWT. Il test è stato modificato come richiesto da Irene Stacchiotti: "Buongiorno Marco, grazie per la segnalazione. Le chiediamo cortesemente di modificare il caso di test utilizzando il campo confidentialityCode invece del patientRole/id. Seguirà una versione aggiornata della documentazione. Grazie mille."</t>
   </si>
   <si>
-    <t>Il test è stato modificato come richiesto da Irene Stacchiotti in quanto la versione originale non è applicabile. E'stato quindi omesso il campo confidentialityCode ottenendo un errore sintattico che in definitiva contiene la stringa "'{\"urn:hl7-org:v3\":confidentialityCode}' is expected."</t>
-  </si>
-  <si>
     <t>subject_application_id: Synapse Workflow</t>
   </si>
   <si>
@@ -2011,15 +1969,6 @@
     <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.1680412eb4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>b6ce9c93bcfdede1</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:14.743Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.e95ec7e6c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>bd233f7eb58a4f97</t>
   </si>
   <si>
@@ -2129,66 +2078,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.4c4a0c7fe3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:31.543Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.18b2668303^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6b3f877d3e768b6a</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:33.143Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.7b47990163^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8e1e53d6cd998082</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:34.817Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.4f5e8bc983^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:36.424Z[UTC]</t>
-  </si>
-  <si>
-    <t>f0425fbc7ec48048</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.0dd762acbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:38.096Z[UTC]</t>
-  </si>
-  <si>
-    <t>39679445a8247217</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.86a31aa09b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2dca6c2dc867626a</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:39.789Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.e08cc93327^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>74cdb2735dc5d0d1</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:41.562Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.8884a1b575^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>51b1c76455bef419</t>
@@ -4320,7 +4209,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4371,7 +4260,7 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D2" s="50"/>
       <c r="F2" s="26"/>
@@ -4396,7 +4285,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="26"/>
@@ -4443,7 +4332,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="26"/>
@@ -4581,7 +4470,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>1</v>
       </c>
@@ -4615,7 +4504,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>2</v>
       </c>
@@ -4649,7 +4538,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>3</v>
       </c>
@@ -4683,7 +4572,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>4</v>
       </c>
@@ -4717,7 +4606,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>5</v>
       </c>
@@ -4751,7 +4640,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>6</v>
       </c>
@@ -4785,7 +4674,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>7</v>
       </c>
@@ -4819,7 +4708,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>8</v>
       </c>
@@ -4853,7 +4742,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>9</v>
       </c>
@@ -4907,13 +4796,13 @@
         <v>44985</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>84</v>
@@ -4951,13 +4840,13 @@
         <v>44985</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>84</v>
@@ -4995,13 +4884,13 @@
         <v>44985</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="J21" s="39" t="s">
         <v>84</v>
@@ -5038,15 +4927,9 @@
       <c r="F22" s="37">
         <v>44985</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>377</v>
-      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="39" t="s">
         <v>321</v>
       </c>
@@ -5065,7 +4948,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>16</v>
       </c>
@@ -5099,7 +4982,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>17</v>
       </c>
@@ -5133,7 +5016,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>18</v>
       </c>
@@ -5167,7 +5050,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>19</v>
       </c>
@@ -5201,7 +5084,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>20</v>
       </c>
@@ -5235,7 +5118,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>21</v>
       </c>
@@ -5269,7 +5152,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>22</v>
       </c>
@@ -5303,7 +5186,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>23</v>
       </c>
@@ -5337,7 +5220,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>24</v>
       </c>
@@ -5371,7 +5254,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>25</v>
       </c>
@@ -5405,7 +5288,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>26</v>
       </c>
@@ -5439,7 +5322,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>27</v>
       </c>
@@ -5473,7 +5356,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>28</v>
       </c>
@@ -5507,7 +5390,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>29</v>
       </c>
@@ -5561,26 +5444,24 @@
         <v>44985</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J37" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="39" t="s">
-        <v>342</v>
-      </c>
+      <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N37" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O37" s="39"/>
       <c r="P37" s="39"/>
@@ -5591,7 +5472,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>33</v>
       </c>
@@ -5625,7 +5506,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>34</v>
       </c>
@@ -5659,7 +5540,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>35</v>
       </c>
@@ -5693,7 +5574,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>36</v>
       </c>
@@ -5727,7 +5608,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>37</v>
       </c>
@@ -5781,26 +5662,24 @@
         <v>44985</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J43" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K43" s="39" t="s">
-        <v>343</v>
-      </c>
+      <c r="K43" s="39"/>
       <c r="L43" s="39"/>
       <c r="M43" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N43" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O43" s="39"/>
       <c r="P43" s="39"/>
@@ -5811,7 +5690,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>41</v>
       </c>
@@ -5845,7 +5724,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>42</v>
       </c>
@@ -5879,7 +5758,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>43</v>
       </c>
@@ -5913,7 +5792,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>44</v>
       </c>
@@ -5949,7 +5828,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>45</v>
       </c>
@@ -6016,7 +5895,7 @@
         <v>84</v>
       </c>
       <c r="N49" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O49" s="39"/>
       <c r="P49" s="39" t="s">
@@ -6031,7 +5910,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>49</v>
       </c>
@@ -6067,7 +5946,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <v>50</v>
       </c>
@@ -6103,7 +5982,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>51</v>
       </c>
@@ -6139,7 +6018,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>52</v>
       </c>
@@ -6173,7 +6052,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>53</v>
       </c>
@@ -6207,7 +6086,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>54</v>
       </c>
@@ -6241,7 +6120,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>55</v>
       </c>
@@ -6275,7 +6154,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <v>56</v>
       </c>
@@ -6309,7 +6188,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>57</v>
       </c>
@@ -6343,7 +6222,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>58</v>
       </c>
@@ -6377,7 +6256,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>59</v>
       </c>
@@ -6411,7 +6290,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <v>60</v>
       </c>
@@ -6445,7 +6324,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>61</v>
       </c>
@@ -6479,7 +6358,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <v>62</v>
       </c>
@@ -6513,7 +6392,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <v>63</v>
       </c>
@@ -6547,7 +6426,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <v>64</v>
       </c>
@@ -6581,7 +6460,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <v>65</v>
       </c>
@@ -6615,7 +6494,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <v>66</v>
       </c>
@@ -6649,7 +6528,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
         <v>67</v>
       </c>
@@ -6683,7 +6562,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
         <v>68</v>
       </c>
@@ -6717,7 +6596,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
         <v>69</v>
       </c>
@@ -6751,7 +6630,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
         <v>70</v>
       </c>
@@ -6785,7 +6664,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
         <v>71</v>
       </c>
@@ -6819,7 +6698,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
         <v>72</v>
       </c>
@@ -6853,7 +6732,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
         <v>73</v>
       </c>
@@ -6887,7 +6766,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
         <v>74</v>
       </c>
@@ -6941,33 +6820,31 @@
         <v>44985</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="J76" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K76" s="39" t="s">
-        <v>363</v>
-      </c>
+      <c r="K76" s="39"/>
       <c r="L76" s="39"/>
       <c r="M76" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N76" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O76" s="39"/>
       <c r="P76" s="39"/>
       <c r="Q76" s="39"/>
       <c r="R76" s="42"/>
       <c r="S76" s="46" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="T76" s="44" t="s">
         <v>330</v>
@@ -6993,26 +6870,24 @@
         <v>44985</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="J77" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K77" s="39" t="s">
-        <v>344</v>
-      </c>
+      <c r="K77" s="39"/>
       <c r="L77" s="39"/>
       <c r="M77" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N77" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O77" s="39"/>
       <c r="P77" s="39"/>
@@ -7043,26 +6918,24 @@
         <v>44985</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="J78" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K78" s="39" t="s">
-        <v>345</v>
-      </c>
+      <c r="K78" s="39"/>
       <c r="L78" s="39"/>
       <c r="M78" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N78" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O78" s="39"/>
       <c r="P78" s="39"/>
@@ -7093,26 +6966,24 @@
         <v>44985</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="J79" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K79" s="39" t="s">
-        <v>346</v>
-      </c>
+      <c r="K79" s="39"/>
       <c r="L79" s="39"/>
       <c r="M79" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N79" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O79" s="39"/>
       <c r="P79" s="39"/>
@@ -7143,26 +7014,24 @@
         <v>44985</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="J80" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K80" s="39" t="s">
-        <v>347</v>
-      </c>
+      <c r="K80" s="39"/>
       <c r="L80" s="39"/>
       <c r="M80" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N80" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O80" s="39"/>
       <c r="P80" s="39"/>
@@ -7193,26 +7062,24 @@
         <v>44985</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="J81" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K81" s="39" t="s">
-        <v>348</v>
-      </c>
+      <c r="K81" s="39"/>
       <c r="L81" s="39"/>
       <c r="M81" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N81" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O81" s="39"/>
       <c r="P81" s="39"/>
@@ -7243,26 +7110,24 @@
         <v>44985</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="J82" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K82" s="39" t="s">
-        <v>349</v>
-      </c>
+      <c r="K82" s="39"/>
       <c r="L82" s="39"/>
       <c r="M82" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N82" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O82" s="39"/>
       <c r="P82" s="39"/>
@@ -7293,26 +7158,24 @@
         <v>44985</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="J83" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K83" s="39" t="s">
-        <v>350</v>
-      </c>
+      <c r="K83" s="39"/>
       <c r="L83" s="39"/>
       <c r="M83" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N83" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O83" s="39"/>
       <c r="P83" s="39"/>
@@ -7343,26 +7206,24 @@
         <v>44985</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="J84" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K84" s="39" t="s">
-        <v>351</v>
-      </c>
+      <c r="K84" s="39"/>
       <c r="L84" s="39"/>
       <c r="M84" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N84" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O84" s="39"/>
       <c r="P84" s="39"/>
@@ -7393,26 +7254,24 @@
         <v>44985</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="J85" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K85" s="39" t="s">
-        <v>352</v>
-      </c>
+      <c r="K85" s="39"/>
       <c r="L85" s="39"/>
       <c r="M85" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N85" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O85" s="39"/>
       <c r="P85" s="39"/>
@@ -7443,26 +7302,24 @@
         <v>44985</v>
       </c>
       <c r="G86" s="38" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="H86" s="38" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="J86" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K86" s="39" t="s">
-        <v>353</v>
-      </c>
+      <c r="K86" s="39"/>
       <c r="L86" s="39"/>
       <c r="M86" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N86" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O86" s="39"/>
       <c r="P86" s="39"/>
@@ -7492,20 +7349,14 @@
       <c r="F87" s="37">
         <v>44985</v>
       </c>
-      <c r="G87" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="H87" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="I87" s="38" t="s">
-        <v>416</v>
-      </c>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
       <c r="J87" s="39" t="s">
         <v>321</v>
       </c>
       <c r="K87" s="39" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L87" s="39"/>
       <c r="M87" s="39" t="s">
@@ -7540,20 +7391,14 @@
       <c r="F88" s="37">
         <v>44985</v>
       </c>
-      <c r="G88" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="H88" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="I88" s="38" t="s">
-        <v>419</v>
-      </c>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
       <c r="J88" s="39" t="s">
         <v>321</v>
       </c>
       <c r="K88" s="39" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L88" s="39"/>
       <c r="M88" s="39" t="s">
@@ -7588,20 +7433,14 @@
       <c r="F89" s="37">
         <v>44985</v>
       </c>
-      <c r="G89" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="H89" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="I89" s="38" t="s">
-        <v>422</v>
-      </c>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
       <c r="J89" s="39" t="s">
         <v>321</v>
       </c>
       <c r="K89" s="39" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L89" s="39"/>
       <c r="M89" s="39" t="s">
@@ -7636,20 +7475,14 @@
       <c r="F90" s="37">
         <v>44985</v>
       </c>
-      <c r="G90" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="H90" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="I90" s="38" t="s">
-        <v>425</v>
-      </c>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
       <c r="J90" s="39" t="s">
         <v>321</v>
       </c>
       <c r="K90" s="39" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L90" s="39"/>
       <c r="M90" s="39" t="s">
@@ -7684,20 +7517,14 @@
       <c r="F91" s="37">
         <v>44985</v>
       </c>
-      <c r="G91" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="H91" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="I91" s="38" t="s">
-        <v>428</v>
-      </c>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
       <c r="J91" s="39" t="s">
         <v>321</v>
       </c>
       <c r="K91" s="39" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L91" s="39"/>
       <c r="M91" s="39" t="s">
@@ -7732,20 +7559,14 @@
       <c r="F92" s="37">
         <v>44985</v>
       </c>
-      <c r="G92" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="H92" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="I92" s="38" t="s">
-        <v>431</v>
-      </c>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
       <c r="J92" s="39" t="s">
         <v>321</v>
       </c>
       <c r="K92" s="39" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L92" s="39"/>
       <c r="M92" s="39" t="s">
@@ -7780,20 +7601,14 @@
       <c r="F93" s="37">
         <v>44985</v>
       </c>
-      <c r="G93" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="H93" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="I93" s="38" t="s">
-        <v>434</v>
-      </c>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
       <c r="J93" s="39" t="s">
         <v>321</v>
       </c>
       <c r="K93" s="39" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="L93" s="39"/>
       <c r="M93" s="39" t="s">
@@ -7829,26 +7644,24 @@
         <v>44985</v>
       </c>
       <c r="G94" s="38" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="H94" s="38" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="J94" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K94" s="39" t="s">
-        <v>358</v>
-      </c>
+      <c r="K94" s="39"/>
       <c r="L94" s="39"/>
       <c r="M94" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N94" s="39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O94" s="39"/>
       <c r="P94" s="39"/>
@@ -7859,7 +7672,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="34">
         <v>94</v>
       </c>
@@ -7893,7 +7706,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="34">
         <v>95</v>
       </c>
@@ -7927,7 +7740,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="34">
         <v>96</v>
       </c>
@@ -7961,7 +7774,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="34">
         <v>97</v>
       </c>
@@ -7995,7 +7808,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="34">
         <v>98</v>
       </c>
@@ -8029,7 +7842,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="34">
         <v>99</v>
       </c>
@@ -8063,7 +7876,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="34">
         <v>100</v>
       </c>
@@ -8097,7 +7910,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="34">
         <v>101</v>
       </c>
@@ -8131,7 +7944,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="34">
         <v>102</v>
       </c>
@@ -8165,7 +7978,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="34">
         <v>103</v>
       </c>
@@ -8199,7 +8012,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="34">
         <v>104</v>
       </c>
@@ -8233,7 +8046,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="34">
         <v>105</v>
       </c>
@@ -8267,7 +8080,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="34">
         <v>106</v>
       </c>
@@ -8301,7 +8114,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="34">
         <v>107</v>
       </c>
@@ -8335,7 +8148,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="34">
         <v>108</v>
       </c>
@@ -8369,7 +8182,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="34">
         <v>109</v>
       </c>
@@ -8403,7 +8216,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="34">
         <v>110</v>
       </c>
@@ -8437,7 +8250,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34">
         <v>111</v>
       </c>
@@ -8471,7 +8284,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="34">
         <v>112</v>
       </c>
@@ -8505,7 +8318,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="34">
         <v>113</v>
       </c>
@@ -8539,7 +8352,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="34">
         <v>114</v>
       </c>
@@ -8573,7 +8386,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="34">
         <v>115</v>
       </c>
@@ -8607,7 +8420,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="34">
         <v>116</v>
       </c>
@@ -8641,7 +8454,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="34">
         <v>117</v>
       </c>
@@ -8675,7 +8488,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="34">
         <v>118</v>
       </c>
@@ -8709,7 +8522,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="34">
         <v>119</v>
       </c>
@@ -8743,7 +8556,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="34">
         <v>120</v>
       </c>
@@ -8777,7 +8590,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="34">
         <v>121</v>
       </c>
@@ -8811,7 +8624,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="34">
         <v>122</v>
       </c>
@@ -8845,7 +8658,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="34">
         <v>123</v>
       </c>
@@ -8879,7 +8692,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="34">
         <v>124</v>
       </c>
@@ -8913,7 +8726,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="34">
         <v>125</v>
       </c>
@@ -8947,7 +8760,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="34">
         <v>126</v>
       </c>
@@ -8981,7 +8794,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="34">
         <v>127</v>
       </c>
@@ -9015,7 +8828,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="34">
         <v>128</v>
       </c>
@@ -9049,7 +8862,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="34">
         <v>129</v>
       </c>
@@ -9083,7 +8896,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="34">
         <v>130</v>
       </c>
@@ -9117,7 +8930,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="34">
         <v>131</v>
       </c>
@@ -9151,7 +8964,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="34">
         <v>132</v>
       </c>
@@ -9185,7 +8998,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34">
         <v>133</v>
       </c>
@@ -9219,7 +9032,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="34">
         <v>134</v>
       </c>
@@ -9253,7 +9066,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="34">
         <v>135</v>
       </c>
@@ -9287,7 +9100,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="34">
         <v>136</v>
       </c>
@@ -9321,7 +9134,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="34">
         <v>137</v>
       </c>
@@ -9355,7 +9168,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="34">
         <v>138</v>
       </c>
@@ -9389,7 +9202,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="34">
         <v>139</v>
       </c>
@@ -9423,7 +9236,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="34">
         <v>140</v>
       </c>
@@ -9457,7 +9270,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="34">
         <v>141</v>
       </c>
@@ -9491,7 +9304,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="34">
         <v>142</v>
       </c>
@@ -9525,7 +9338,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="34">
         <v>143</v>
       </c>
@@ -9559,7 +9372,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="34">
         <v>144</v>
       </c>
@@ -9593,7 +9406,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="34">
         <v>145</v>
       </c>
@@ -9627,7 +9440,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="34">
         <v>146</v>
       </c>
@@ -26234,6 +26047,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26464,41 +26297,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26521,9 +26323,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmontel/Documents/dev/FSE/it-fse-accreditamento/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51463C16-CBF1-6440-85B2-1FCE30497DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C78C0-FC15-1D45-9A29-3988B58C6DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="23160" windowWidth="33400" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="1220" windowWidth="30980" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="403">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1909,9 +1909,6 @@
     <t>La sezione DICOM Object Catalog non è completa in quanto il sistema non ha accesso a tutto l'aggregato Study-&gt;Series-&gt;SOP Intences. La sezione "Precedenti esami eseguiti" non è completa in quanto l'utente non può selezionare gli esami precedenti eseguiti inerenti la refertazione corrente.</t>
   </si>
   <si>
-    <t>A fronte di un timeout nell'invio viene generata una Exception che viene gestita dall'applicativo</t>
-  </si>
-  <si>
     <t>Il test non è supportato in quanto per l'utente non è possibile indicare quali precedenti esami eseguiti hanno contribuito alla formulazione del referto. L'utente può vederli ma non può selezionarli ai fini di quanto richiesto in questo contesto.</t>
   </si>
   <si>
@@ -1924,9 +1921,6 @@
     <t>Il test non può essere completamente validato in quanto l'applicazione non gestisce le codifiche LOINC relative al quesito diagnostico.</t>
   </si>
   <si>
-    <t>Riportato errore validazione</t>
-  </si>
-  <si>
     <t>Fujifilm Italia S.p.A.</t>
   </si>
   <si>
@@ -2087,6 +2081,18 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.6815796e6c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il record di refertazione viene bloccato nell'applicativo e visualizzato il messaggio di errore ricevuto da FSE.</t>
+  </si>
+  <si>
+    <t>Il caso viene gestito in back office con il seguente flusso: 1. Il record di refertazione viene bloccato sull'applicativo in uno stato di manutenzione. 2. Il caso di errore viene visualizzato nel modulo integrato gestione problematiche. 3. Un utente amministratore gestisce il caso, ed una volta risolto, il record di refertazione viene sbloccato e rimosso lo stato di manutenzione. 4. Il sistema sottopone nuovamente la richiesta di validazione a FSE</t>
+  </si>
+  <si>
+    <t>Si ha evidenza dell'errore tramite una icona sul record. I dettagli sono disponibili nel modulo integrato gestione problematiche richiamabile dal record stesso, dove viene visualizzato l'errore ricevuto da FSE.</t>
+  </si>
+  <si>
+    <t>Il caso viene gestito in back office con il seguente flusso: 1. Il record di refertazione viene bloccato sull'applicativo in uno stato di manutenzione. 2. Il caso di errore viene visualizzato nel modulo integrato gestione problematiche. 3. Un utente amministratore gestisce il caso, ed una volta risolto, il record di refertazione viene sbloccato e rimosso lo stato di manutenzione. 4. Il medico riceve una notifica automatica che riporta il problema risolto e lo invita a creare e firmare un addendum.</t>
   </si>
 </sst>
 </file>
@@ -4205,11 +4211,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4260,7 +4266,7 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D2" s="50"/>
       <c r="F2" s="26"/>
@@ -4285,7 +4291,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="26"/>
@@ -4332,7 +4338,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="26"/>
@@ -4796,13 +4802,13 @@
         <v>44985</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H19" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19" s="38" t="s">
         <v>352</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>354</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>84</v>
@@ -4840,13 +4846,13 @@
         <v>44985</v>
       </c>
       <c r="G20" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="I20" s="38" t="s">
         <v>355</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>357</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>84</v>
@@ -4884,13 +4890,13 @@
         <v>44985</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H21" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="I21" s="38" t="s">
         <v>358</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>360</v>
       </c>
       <c r="J21" s="39" t="s">
         <v>84</v>
@@ -5424,7 +5430,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="193" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="257" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>31</v>
       </c>
@@ -5444,27 +5450,33 @@
         <v>44985</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J37" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
+      <c r="L37" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M37" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N37" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
+        <v>399</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>400</v>
+      </c>
       <c r="Q37" s="39"/>
       <c r="R37" s="42"/>
       <c r="S37" s="40"/>
@@ -5472,7 +5484,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="257" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>33</v>
       </c>
@@ -5495,10 +5507,18 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
+      <c r="M38" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>400</v>
+      </c>
       <c r="Q38" s="39"/>
       <c r="R38" s="42"/>
       <c r="S38" s="40"/>
@@ -5506,7 +5526,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="257" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>34</v>
       </c>
@@ -5529,10 +5549,18 @@
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
       <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
+      <c r="M39" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>400</v>
+      </c>
       <c r="Q39" s="39"/>
       <c r="R39" s="42"/>
       <c r="S39" s="40"/>
@@ -5540,7 +5568,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>35</v>
       </c>
@@ -5563,10 +5591,18 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
       <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
+      <c r="M40" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N40" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q40" s="39"/>
       <c r="R40" s="42"/>
       <c r="S40" s="40"/>
@@ -5574,7 +5610,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>36</v>
       </c>
@@ -5597,10 +5633,18 @@
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
+      <c r="M41" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q41" s="39"/>
       <c r="R41" s="42"/>
       <c r="S41" s="40"/>
@@ -5608,7 +5652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>37</v>
       </c>
@@ -5631,10 +5675,18 @@
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
+      <c r="M42" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q42" s="39"/>
       <c r="R42" s="42"/>
       <c r="S42" s="40"/>
@@ -5642,7 +5694,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="257" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>39</v>
       </c>
@@ -5662,27 +5714,33 @@
         <v>44985</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J43" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
+      <c r="L43" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M43" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N43" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
+        <v>399</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>400</v>
+      </c>
       <c r="Q43" s="39"/>
       <c r="R43" s="42"/>
       <c r="S43" s="40"/>
@@ -5690,7 +5748,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>41</v>
       </c>
@@ -5713,10 +5771,18 @@
       <c r="J44" s="39"/>
       <c r="K44" s="39"/>
       <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
+      <c r="M44" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q44" s="39"/>
       <c r="R44" s="42"/>
       <c r="S44" s="40"/>
@@ -5724,7 +5790,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>42</v>
       </c>
@@ -5747,10 +5813,18 @@
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
+      <c r="M45" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q45" s="39"/>
       <c r="R45" s="42"/>
       <c r="S45" s="40"/>
@@ -5758,7 +5832,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="209" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>43</v>
       </c>
@@ -5781,10 +5855,18 @@
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
       <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
+      <c r="M46" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q46" s="39"/>
       <c r="R46" s="42"/>
       <c r="S46" s="40"/>
@@ -5792,7 +5874,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>44</v>
       </c>
@@ -5815,10 +5897,18 @@
       <c r="J47" s="39"/>
       <c r="K47" s="39"/>
       <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
+      <c r="M47" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q47" s="39"/>
       <c r="R47" s="42" t="s">
         <v>84</v>
@@ -5828,7 +5918,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>45</v>
       </c>
@@ -5851,10 +5941,18 @@
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
       <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
+      <c r="M48" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N48" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q48" s="39"/>
       <c r="R48" s="42" t="s">
         <v>84</v>
@@ -5864,7 +5962,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="257" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>47</v>
       </c>
@@ -5890,16 +5988,20 @@
         <v>84</v>
       </c>
       <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
+      <c r="L49" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M49" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N49" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O49" s="39"/>
+        <v>399</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P49" s="39" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="39"/>
       <c r="R49" s="42" t="s">
@@ -5910,7 +6012,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>49</v>
       </c>
@@ -5933,10 +6035,18 @@
       <c r="J50" s="39"/>
       <c r="K50" s="39"/>
       <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
+      <c r="M50" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q50" s="39"/>
       <c r="R50" s="42" t="s">
         <v>84</v>
@@ -5969,7 +6079,9 @@
       <c r="J51" s="39"/>
       <c r="K51" s="39"/>
       <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
+      <c r="M51" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N51" s="39"/>
       <c r="O51" s="39"/>
       <c r="P51" s="39"/>
@@ -6005,7 +6117,9 @@
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
       <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
+      <c r="M52" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N52" s="39"/>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
@@ -6018,7 +6132,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>52</v>
       </c>
@@ -6041,7 +6155,9 @@
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
+      <c r="M53" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
       <c r="P53" s="39"/>
@@ -6052,7 +6168,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>53</v>
       </c>
@@ -6075,7 +6191,9 @@
       <c r="J54" s="39"/>
       <c r="K54" s="39"/>
       <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
+      <c r="M54" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N54" s="39"/>
       <c r="O54" s="39"/>
       <c r="P54" s="39"/>
@@ -6086,7 +6204,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>54</v>
       </c>
@@ -6109,7 +6227,9 @@
       <c r="J55" s="39"/>
       <c r="K55" s="39"/>
       <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
+      <c r="M55" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N55" s="39"/>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
@@ -6120,7 +6240,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>55</v>
       </c>
@@ -6143,7 +6263,9 @@
       <c r="J56" s="39"/>
       <c r="K56" s="39"/>
       <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
+      <c r="M56" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N56" s="39"/>
       <c r="O56" s="39"/>
       <c r="P56" s="39"/>
@@ -6154,7 +6276,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <v>56</v>
       </c>
@@ -6177,7 +6299,9 @@
       <c r="J57" s="39"/>
       <c r="K57" s="39"/>
       <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
+      <c r="M57" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N57" s="39"/>
       <c r="O57" s="39"/>
       <c r="P57" s="39"/>
@@ -6188,7 +6312,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>57</v>
       </c>
@@ -6211,10 +6335,18 @@
       <c r="J58" s="39"/>
       <c r="K58" s="39"/>
       <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
+      <c r="M58" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N58" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="Q58" s="39"/>
       <c r="R58" s="42"/>
       <c r="S58" s="40"/>
@@ -6800,7 +6932,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="241" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
         <v>75</v>
       </c>
@@ -6820,37 +6952,43 @@
         <v>44985</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H76" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="I76" s="38" t="s">
         <v>365</v>
-      </c>
-      <c r="I76" s="38" t="s">
-        <v>367</v>
       </c>
       <c r="J76" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
+      <c r="L76" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M76" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N76" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P76" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q76" s="39"/>
       <c r="R76" s="42"/>
       <c r="S76" s="46" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="T76" s="44" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>76</v>
       </c>
@@ -6870,27 +7008,33 @@
         <v>44985</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H77" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="I77" s="38" t="s">
         <v>368</v>
-      </c>
-      <c r="I77" s="38" t="s">
-        <v>370</v>
       </c>
       <c r="J77" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
+      <c r="L77" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M77" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N77" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P77" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q77" s="39"/>
       <c r="R77" s="42"/>
       <c r="S77" s="40"/>
@@ -6898,7 +7042,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
         <v>77</v>
       </c>
@@ -6918,27 +7062,33 @@
         <v>44985</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H78" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="I78" s="38" t="s">
         <v>371</v>
-      </c>
-      <c r="I78" s="38" t="s">
-        <v>373</v>
       </c>
       <c r="J78" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
+      <c r="L78" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M78" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N78" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O78" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q78" s="39"/>
       <c r="R78" s="42"/>
       <c r="S78" s="40"/>
@@ -6946,7 +7096,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
         <v>78</v>
       </c>
@@ -6966,27 +7116,33 @@
         <v>44985</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H79" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="I79" s="38" t="s">
         <v>374</v>
-      </c>
-      <c r="I79" s="38" t="s">
-        <v>376</v>
       </c>
       <c r="J79" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
+      <c r="L79" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M79" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N79" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O79" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q79" s="39"/>
       <c r="R79" s="42"/>
       <c r="S79" s="40"/>
@@ -6994,7 +7150,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
         <v>79</v>
       </c>
@@ -7014,27 +7170,33 @@
         <v>44985</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H80" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="I80" s="38" t="s">
         <v>377</v>
-      </c>
-      <c r="I80" s="38" t="s">
-        <v>379</v>
       </c>
       <c r="J80" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
+      <c r="L80" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M80" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N80" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O80" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P80" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q80" s="39"/>
       <c r="R80" s="42"/>
       <c r="S80" s="40"/>
@@ -7042,7 +7204,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
         <v>80</v>
       </c>
@@ -7062,27 +7224,33 @@
         <v>44985</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H81" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="I81" s="38" t="s">
         <v>380</v>
-      </c>
-      <c r="I81" s="38" t="s">
-        <v>382</v>
       </c>
       <c r="J81" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
+      <c r="L81" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M81" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N81" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O81" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P81" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q81" s="39"/>
       <c r="R81" s="42"/>
       <c r="S81" s="40"/>
@@ -7090,7 +7258,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
         <v>81</v>
       </c>
@@ -7110,27 +7278,33 @@
         <v>44985</v>
       </c>
       <c r="G82" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="I82" s="38" t="s">
         <v>383</v>
-      </c>
-      <c r="H82" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="I82" s="38" t="s">
-        <v>385</v>
       </c>
       <c r="J82" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
+      <c r="L82" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M82" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N82" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O82" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P82" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q82" s="39"/>
       <c r="R82" s="42"/>
       <c r="S82" s="40"/>
@@ -7138,7 +7312,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
         <v>82</v>
       </c>
@@ -7158,27 +7332,33 @@
         <v>44985</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H83" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="I83" s="38" t="s">
         <v>386</v>
-      </c>
-      <c r="I83" s="38" t="s">
-        <v>388</v>
       </c>
       <c r="J83" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
+      <c r="L83" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M83" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N83" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O83" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q83" s="39"/>
       <c r="R83" s="42"/>
       <c r="S83" s="40"/>
@@ -7186,7 +7366,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
         <v>83</v>
       </c>
@@ -7206,27 +7386,33 @@
         <v>44985</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H84" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="I84" s="38" t="s">
         <v>389</v>
-      </c>
-      <c r="I84" s="38" t="s">
-        <v>391</v>
       </c>
       <c r="J84" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
+      <c r="L84" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M84" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N84" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O84" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P84" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q84" s="39"/>
       <c r="R84" s="42"/>
       <c r="S84" s="40"/>
@@ -7234,7 +7420,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
         <v>84</v>
       </c>
@@ -7254,27 +7440,33 @@
         <v>44985</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H85" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="I85" s="38" t="s">
         <v>392</v>
-      </c>
-      <c r="I85" s="38" t="s">
-        <v>394</v>
       </c>
       <c r="J85" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K85" s="39"/>
-      <c r="L85" s="39"/>
+      <c r="L85" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M85" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N85" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O85" s="39"/>
-      <c r="P85" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O85" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P85" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q85" s="39"/>
       <c r="R85" s="42"/>
       <c r="S85" s="40"/>
@@ -7282,7 +7474,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
         <v>85</v>
       </c>
@@ -7302,27 +7494,33 @@
         <v>44985</v>
       </c>
       <c r="G86" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H86" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="I86" s="38" t="s">
         <v>395</v>
-      </c>
-      <c r="I86" s="38" t="s">
-        <v>397</v>
       </c>
       <c r="J86" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
+      <c r="L86" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M86" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N86" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O86" s="39"/>
-      <c r="P86" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O86" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q86" s="39"/>
       <c r="R86" s="42"/>
       <c r="S86" s="40"/>
@@ -7356,7 +7554,7 @@
         <v>321</v>
       </c>
       <c r="K87" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L87" s="39"/>
       <c r="M87" s="39" t="s">
@@ -7398,7 +7596,7 @@
         <v>321</v>
       </c>
       <c r="K88" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L88" s="39"/>
       <c r="M88" s="39" t="s">
@@ -7440,7 +7638,7 @@
         <v>321</v>
       </c>
       <c r="K89" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L89" s="39"/>
       <c r="M89" s="39" t="s">
@@ -7482,7 +7680,7 @@
         <v>321</v>
       </c>
       <c r="K90" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L90" s="39"/>
       <c r="M90" s="39" t="s">
@@ -7524,7 +7722,7 @@
         <v>321</v>
       </c>
       <c r="K91" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L91" s="39"/>
       <c r="M91" s="39" t="s">
@@ -7566,7 +7764,7 @@
         <v>321</v>
       </c>
       <c r="K92" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L92" s="39"/>
       <c r="M92" s="39" t="s">
@@ -7608,7 +7806,7 @@
         <v>321</v>
       </c>
       <c r="K93" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L93" s="39"/>
       <c r="M93" s="39" t="s">
@@ -7624,7 +7822,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="288" x14ac:dyDescent="0.2">
       <c r="A94" s="34">
         <v>93</v>
       </c>
@@ -7644,27 +7842,33 @@
         <v>44985</v>
       </c>
       <c r="G94" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H94" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="I94" s="38" t="s">
         <v>398</v>
-      </c>
-      <c r="I94" s="38" t="s">
-        <v>400</v>
       </c>
       <c r="J94" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
+      <c r="L94" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="M94" s="39" t="s">
         <v>84</v>
       </c>
       <c r="N94" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="O94" s="39"/>
-      <c r="P94" s="39"/>
+        <v>401</v>
+      </c>
+      <c r="O94" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P94" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="Q94" s="39"/>
       <c r="R94" s="42"/>
       <c r="S94" s="40"/>
@@ -23878,7 +24082,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O10:O1048576 O1:O8 L1:M8 L10:M1048576</xm:sqref>
+          <xm:sqref>O1:O8 L1:M8 O95:O1048576 O10:O36 L10:M36 L38:L42 L44:L48 L50:L75 M59:M75 O59:O75 O87:O93 L87:M93 L95:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -26056,17 +26260,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26297,6 +26490,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
@@ -26306,23 +26510,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26341,6 +26528,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmontel/Documents/dev/FSE/it-fse-accreditamento/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C78C0-FC15-1D45-9A29-3988B58C6DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7564C3-A7D2-2544-A2C7-EDC3983142DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1220" windowWidth="30980" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="760" windowWidth="30980" windowHeight="20280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -4211,11 +4211,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4646,7 +4646,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>6</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>7</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>8</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>9</v>
       </c>
@@ -4930,9 +4930,7 @@
       <c r="E22" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="37">
-        <v>44985</v>
-      </c>
+      <c r="F22" s="37"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
@@ -5090,7 +5088,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>20</v>
       </c>
@@ -5124,7 +5122,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>21</v>
       </c>
@@ -5158,7 +5156,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>22</v>
       </c>
@@ -5192,7 +5190,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>23</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>35</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>36</v>
       </c>
@@ -5652,7 +5650,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>37</v>
       </c>
@@ -5748,7 +5746,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>41</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>42</v>
       </c>
@@ -5832,7 +5830,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>43</v>
       </c>
@@ -5874,7 +5872,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>44</v>
       </c>
@@ -5918,7 +5916,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>45</v>
       </c>
@@ -6012,7 +6010,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>49</v>
       </c>
@@ -6132,7 +6130,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>52</v>
       </c>
@@ -6168,7 +6166,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>53</v>
       </c>
@@ -6204,7 +6202,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>54</v>
       </c>
@@ -6240,7 +6238,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>55</v>
       </c>
@@ -6312,7 +6310,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="305" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>57</v>
       </c>
@@ -6354,7 +6352,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>58</v>
       </c>
@@ -6388,7 +6386,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>59</v>
       </c>
@@ -6422,7 +6420,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <v>60</v>
       </c>
@@ -6456,7 +6454,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>61</v>
       </c>
@@ -6490,7 +6488,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <v>62</v>
       </c>
@@ -7544,9 +7542,7 @@
       <c r="E87" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F87" s="37">
-        <v>44985</v>
-      </c>
+      <c r="F87" s="37"/>
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
       <c r="I87" s="38"/>
@@ -7586,9 +7582,7 @@
       <c r="E88" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F88" s="37">
-        <v>44985</v>
-      </c>
+      <c r="F88" s="37"/>
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
       <c r="I88" s="38"/>
@@ -7628,9 +7622,7 @@
       <c r="E89" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F89" s="37">
-        <v>44985</v>
-      </c>
+      <c r="F89" s="37"/>
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
       <c r="I89" s="38"/>
@@ -7670,9 +7662,7 @@
       <c r="E90" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F90" s="37">
-        <v>44985</v>
-      </c>
+      <c r="F90" s="37"/>
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="I90" s="38"/>
@@ -7712,9 +7702,7 @@
       <c r="E91" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="37">
-        <v>44985</v>
-      </c>
+      <c r="F91" s="37"/>
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
@@ -7754,9 +7742,7 @@
       <c r="E92" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="F92" s="37">
-        <v>44985</v>
-      </c>
+      <c r="F92" s="37"/>
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
@@ -7796,9 +7782,7 @@
       <c r="E93" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="37">
-        <v>44985</v>
-      </c>
+      <c r="F93" s="37"/>
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
@@ -26251,12 +26235,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26491,20 +26477,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26529,18 +26522,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmontel/Documents/dev/FSE/it-fse-accreditamento/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7564C3-A7D2-2544-A2C7-EDC3983142DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07783C5-EF88-E641-9361-85BED5270C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="760" windowWidth="30980" windowHeight="20280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1420" yWindow="-21000" windowWidth="37340" windowHeight="19700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="400">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1930,169 +1930,160 @@
     <t>Viene sollevato un errore relativo alla validazione del token JWT in quanto vengono omessi tutti gli identificativi del paziente compreso il codice fiscale che invece è mandatorio per la validazione del token JWT. Il test è stato modificato come richiesto da Irene Stacchiotti: "Buongiorno Marco, grazie per la segnalazione. Le chiediamo cortesemente di modificare il caso di test utilizzando il campo confidentialityCode invece del patientRole/id. Seguirà una versione aggiornata della documentazione. Grazie mille."</t>
   </si>
   <si>
+    <t>Il record di refertazione viene bloccato nell'applicativo e visualizzato il messaggio di errore ricevuto da FSE.</t>
+  </si>
+  <si>
+    <t>Il caso viene gestito in back office con il seguente flusso: 1. Il record di refertazione viene bloccato sull'applicativo in uno stato di manutenzione. 2. Il caso di errore viene visualizzato nel modulo integrato gestione problematiche. 3. Un utente amministratore gestisce il caso, ed una volta risolto, il record di refertazione viene sbloccato e rimosso lo stato di manutenzione. 4. Il medico riceve una notifica automatica che riporta il problema risolto e lo invita a creare e firmare un addendum.</t>
+  </si>
+  <si>
+    <t>Si ha evidenza dell'errore tramite una icona sul record. I dettagli sono disponibili nel modulo integrato gestione problematiche richiamabile dal record stesso, dove viene visualizzato l'errore ricevuto da FSE.</t>
+  </si>
+  <si>
+    <t>Il caso viene gestito in back office con il seguente flusso: 1. Il record di refertazione viene bloccato sull'applicativo in uno stato di manutenzione. 2. Il caso di errore viene visualizzato nel modulo integrato gestione problematiche. 3. Un utente amministratore gestisce il caso, ed una volta risolto, il record di refertazione viene sbloccato e rimosso lo stato di manutenzione. 4. Il sistema sottopone nuovamente la richiesta di validazione a FSE</t>
+  </si>
+  <si>
     <t>subject_application_id: Synapse Workflow</t>
   </si>
   <si>
     <t>subject_application_version: 4.33</t>
   </si>
   <si>
-    <t>591878fc3d0a549c</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:10.176Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.d3a7dd850d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:11.629Z[UTC]</t>
-  </si>
-  <si>
-    <t>77708f1ced53f4fb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.8d8179b5ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3051b76541b6d75b</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:13.198Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.1680412eb4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bd233f7eb58a4f97</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:16.858Z[UTC]</t>
-  </si>
-  <si>
-    <t>cef0f2c1b5b9c6f1</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:43.497Z[UTC]</t>
-  </si>
-  <si>
-    <t>ecfda213c2ec0b35</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:15.833Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.ef6eed38fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>72a5ab435e6a0e91</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:18.096Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.9711089498^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>caa783e88215b0bb</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:19.213Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.6485808fe2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cf96e2e51671517f</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:20.226Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.1ae6c161c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>803011b079ba6314</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:21.291Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.eefb99533c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bc2862cd48fb7457</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:22.998Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.af4a150eb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:24.047Z[UTC]</t>
-  </si>
-  <si>
-    <t>e98c062a44efab5a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.698e5a3e98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c5decc19986d2d52</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:25.091Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.2b5237f25c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>379c5c7b777319f5</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:26.051Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.bc611ae0f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7f5cc6985c218517</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:28.77Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.da75ca6b14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>565948932dbc707d</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:29.892Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.4c4a0c7fe3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>51b1c76455bef419</t>
-  </si>
-  <si>
-    <t>2023-02-28T10:40:42.509Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.6815796e6c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Il record di refertazione viene bloccato nell'applicativo e visualizzato il messaggio di errore ricevuto da FSE.</t>
-  </si>
-  <si>
-    <t>Il caso viene gestito in back office con il seguente flusso: 1. Il record di refertazione viene bloccato sull'applicativo in uno stato di manutenzione. 2. Il caso di errore viene visualizzato nel modulo integrato gestione problematiche. 3. Un utente amministratore gestisce il caso, ed una volta risolto, il record di refertazione viene sbloccato e rimosso lo stato di manutenzione. 4. Il sistema sottopone nuovamente la richiesta di validazione a FSE</t>
-  </si>
-  <si>
-    <t>Si ha evidenza dell'errore tramite una icona sul record. I dettagli sono disponibili nel modulo integrato gestione problematiche richiamabile dal record stesso, dove viene visualizzato l'errore ricevuto da FSE.</t>
-  </si>
-  <si>
-    <t>Il caso viene gestito in back office con il seguente flusso: 1. Il record di refertazione viene bloccato sull'applicativo in uno stato di manutenzione. 2. Il caso di errore viene visualizzato nel modulo integrato gestione problematiche. 3. Un utente amministratore gestisce il caso, ed una volta risolto, il record di refertazione viene sbloccato e rimosso lo stato di manutenzione. 4. Il medico riceve una notifica automatica che riporta il problema risolto e lo invita a creare e firmare un addendum.</t>
+    <t>609c43acec9a8506</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:03:07.798Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.8aaedb1b77^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6c3130daeee5c3e9</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:03:08.753Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.573fe22727^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7557d8ff8e80a4df</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:48.1Z[UTC]</t>
+  </si>
+  <si>
+    <t>d56a32dfe29064a1</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:03:06.816Z[UTC]</t>
+  </si>
+  <si>
+    <t>62906e8b9c7c78b3</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:46.376Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.e4b57fb362^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6036da96a2896a6f</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:49.842Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.8e4bb6d8a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2d41dee2c91bfa20</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:51.581Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.2d7125cfb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7b7ab8bc3daee0ab</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:53.12Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.5ad0ab2acf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2af7feebf02a1e22</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:54.655Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.dbe8a5ed98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d3a07e95ab074e7c</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:56.078Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.ecdfc0b2bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>015dd2da803ef958</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:57.615Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.055da97d03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>285afad4227d766f</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:02:59.162Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.138e5a0281^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4e232ec9a1412c1f</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:03:00.601Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.b0d3dea442^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>77284d4b92102d61</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:03:02.178Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.d2062b5f7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>94c61425c0d15bdc</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:03:03.77Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.eef39cde18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ab211ee213884317</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:03:05.336Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.7335c30c60^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3138,7 +3129,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4211,11 +4202,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4224,7 +4215,7 @@
     <col min="2" max="2" width="15.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="104.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" style="25" bestFit="1" customWidth="1"/>
@@ -4291,7 +4282,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="26"/>
@@ -4338,7 +4329,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="26"/>
@@ -4476,7 +4467,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>1</v>
       </c>
@@ -4510,7 +4501,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>2</v>
       </c>
@@ -4544,7 +4535,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>3</v>
       </c>
@@ -4578,7 +4569,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>4</v>
       </c>
@@ -4612,7 +4603,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="161" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>5</v>
       </c>
@@ -4646,7 +4637,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>6</v>
       </c>
@@ -4680,7 +4671,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>7</v>
       </c>
@@ -4714,7 +4705,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>8</v>
       </c>
@@ -4748,7 +4739,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>9</v>
       </c>
@@ -4782,7 +4773,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="145" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="145" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>11</v>
       </c>
@@ -4799,16 +4790,16 @@
         <v>48</v>
       </c>
       <c r="F19" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>84</v>
@@ -4826,7 +4817,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="145" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>12</v>
       </c>
@@ -4843,16 +4834,16 @@
         <v>50</v>
       </c>
       <c r="F20" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>84</v>
@@ -4870,7 +4861,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="145" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>13</v>
       </c>
@@ -4886,22 +4877,16 @@
       <c r="E21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="37">
-        <v>44985</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>358</v>
-      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="39"/>
+        <v>321</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>340</v>
+      </c>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
@@ -4914,7 +4899,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="145" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>14</v>
       </c>
@@ -4952,7 +4937,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>16</v>
       </c>
@@ -4986,7 +4971,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>17</v>
       </c>
@@ -5020,7 +5005,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>18</v>
       </c>
@@ -5054,7 +5039,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>19</v>
       </c>
@@ -5088,7 +5073,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>20</v>
       </c>
@@ -5122,7 +5107,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>21</v>
       </c>
@@ -5156,7 +5141,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>22</v>
       </c>
@@ -5190,7 +5175,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>23</v>
       </c>
@@ -5224,7 +5209,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>24</v>
       </c>
@@ -5258,7 +5243,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>25</v>
       </c>
@@ -5292,7 +5277,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>26</v>
       </c>
@@ -5326,7 +5311,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="273" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="145" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>27</v>
       </c>
@@ -5360,7 +5345,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>28</v>
       </c>
@@ -5394,7 +5379,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="193" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>29</v>
       </c>
@@ -5428,7 +5413,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="257" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="241" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>31</v>
       </c>
@@ -5445,13 +5430,13 @@
         <v>88</v>
       </c>
       <c r="F37" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G37" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H37" s="38" t="s">
         <v>360</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>359</v>
       </c>
       <c r="I37" s="38" t="s">
         <v>346</v>
@@ -5467,13 +5452,13 @@
         <v>84</v>
       </c>
       <c r="N37" s="39" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="O37" s="39" t="s">
         <v>84</v>
       </c>
       <c r="P37" s="39" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="Q37" s="39"/>
       <c r="R37" s="42"/>
@@ -5482,7 +5467,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="257" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>33</v>
       </c>
@@ -5505,18 +5490,10 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
-      <c r="M38" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N38" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="O38" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P38" s="39" t="s">
-        <v>400</v>
-      </c>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
       <c r="Q38" s="39"/>
       <c r="R38" s="42"/>
       <c r="S38" s="40"/>
@@ -5524,7 +5501,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="257" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>34</v>
       </c>
@@ -5547,18 +5524,10 @@
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
       <c r="L39" s="39"/>
-      <c r="M39" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N39" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="O39" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P39" s="39" t="s">
-        <v>400</v>
-      </c>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
       <c r="Q39" s="39"/>
       <c r="R39" s="42"/>
       <c r="S39" s="40"/>
@@ -5566,7 +5535,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="113" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>35</v>
       </c>
@@ -5589,18 +5558,10 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
       <c r="L40" s="39"/>
-      <c r="M40" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N40" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P40" s="42" t="s">
-        <v>402</v>
-      </c>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
       <c r="Q40" s="39"/>
       <c r="R40" s="42"/>
       <c r="S40" s="40"/>
@@ -5608,7 +5569,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>36</v>
       </c>
@@ -5631,18 +5592,10 @@
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O41" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P41" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="42"/>
       <c r="S41" s="40"/>
@@ -5650,7 +5603,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>37</v>
       </c>
@@ -5673,18 +5626,10 @@
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
-      <c r="M42" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P42" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
       <c r="Q42" s="39"/>
       <c r="R42" s="42"/>
       <c r="S42" s="40"/>
@@ -5692,7 +5637,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="257" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="241" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>39</v>
       </c>
@@ -5709,13 +5654,13 @@
         <v>100</v>
       </c>
       <c r="F43" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G43" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="H43" s="38" t="s">
         <v>362</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>361</v>
       </c>
       <c r="I43" s="38" t="s">
         <v>346</v>
@@ -5731,13 +5676,13 @@
         <v>84</v>
       </c>
       <c r="N43" s="39" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="O43" s="39" t="s">
         <v>84</v>
       </c>
       <c r="P43" s="39" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="Q43" s="39"/>
       <c r="R43" s="42"/>
@@ -5746,7 +5691,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>41</v>
       </c>
@@ -5769,18 +5714,10 @@
       <c r="J44" s="39"/>
       <c r="K44" s="39"/>
       <c r="L44" s="39"/>
-      <c r="M44" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O44" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P44" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
       <c r="Q44" s="39"/>
       <c r="R44" s="42"/>
       <c r="S44" s="40"/>
@@ -5788,7 +5725,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>42</v>
       </c>
@@ -5811,18 +5748,10 @@
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N45" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P45" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
       <c r="Q45" s="39"/>
       <c r="R45" s="42"/>
       <c r="S45" s="40"/>
@@ -5830,7 +5759,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>43</v>
       </c>
@@ -5853,18 +5782,10 @@
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
       <c r="L46" s="39"/>
-      <c r="M46" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N46" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O46" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P46" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
       <c r="Q46" s="39"/>
       <c r="R46" s="42"/>
       <c r="S46" s="40"/>
@@ -5872,7 +5793,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>44</v>
       </c>
@@ -5895,18 +5816,10 @@
       <c r="J47" s="39"/>
       <c r="K47" s="39"/>
       <c r="L47" s="39"/>
-      <c r="M47" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N47" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O47" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P47" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
       <c r="Q47" s="39"/>
       <c r="R47" s="42" t="s">
         <v>84</v>
@@ -5916,7 +5829,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>45</v>
       </c>
@@ -5939,18 +5852,10 @@
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
       <c r="L48" s="39"/>
-      <c r="M48" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N48" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O48" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P48" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
       <c r="Q48" s="39"/>
       <c r="R48" s="42" t="s">
         <v>84</v>
@@ -5960,7 +5865,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="257" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="241" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>47</v>
       </c>
@@ -5977,7 +5882,7 @@
         <v>108</v>
       </c>
       <c r="F49" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
@@ -5993,13 +5898,13 @@
         <v>84</v>
       </c>
       <c r="N49" s="39" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="O49" s="39" t="s">
         <v>84</v>
       </c>
       <c r="P49" s="39" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="Q49" s="39"/>
       <c r="R49" s="42" t="s">
@@ -6010,7 +5915,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>49</v>
       </c>
@@ -6033,18 +5938,10 @@
       <c r="J50" s="39"/>
       <c r="K50" s="39"/>
       <c r="L50" s="39"/>
-      <c r="M50" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N50" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P50" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
       <c r="Q50" s="39"/>
       <c r="R50" s="42" t="s">
         <v>84</v>
@@ -6054,7 +5951,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <v>50</v>
       </c>
@@ -6077,9 +5974,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="39"/>
       <c r="L51" s="39"/>
-      <c r="M51" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="M51" s="39"/>
       <c r="N51" s="39"/>
       <c r="O51" s="39"/>
       <c r="P51" s="39"/>
@@ -6092,7 +5987,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="65" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="49" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>51</v>
       </c>
@@ -6115,9 +6010,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
       <c r="L52" s="39"/>
-      <c r="M52" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="M52" s="39"/>
       <c r="N52" s="39"/>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
@@ -6130,7 +6023,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>52</v>
       </c>
@@ -6153,9 +6046,7 @@
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="39"/>
-      <c r="M53" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="M53" s="39"/>
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
       <c r="P53" s="39"/>
@@ -6166,7 +6057,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>53</v>
       </c>
@@ -6189,9 +6080,7 @@
       <c r="J54" s="39"/>
       <c r="K54" s="39"/>
       <c r="L54" s="39"/>
-      <c r="M54" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="M54" s="39"/>
       <c r="N54" s="39"/>
       <c r="O54" s="39"/>
       <c r="P54" s="39"/>
@@ -6202,7 +6091,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>54</v>
       </c>
@@ -6225,9 +6114,7 @@
       <c r="J55" s="39"/>
       <c r="K55" s="39"/>
       <c r="L55" s="39"/>
-      <c r="M55" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="M55" s="39"/>
       <c r="N55" s="39"/>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
@@ -6238,7 +6125,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="225" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>55</v>
       </c>
@@ -6261,9 +6148,7 @@
       <c r="J56" s="39"/>
       <c r="K56" s="39"/>
       <c r="L56" s="39"/>
-      <c r="M56" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="M56" s="39"/>
       <c r="N56" s="39"/>
       <c r="O56" s="39"/>
       <c r="P56" s="39"/>
@@ -6274,7 +6159,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <v>56</v>
       </c>
@@ -6297,9 +6182,7 @@
       <c r="J57" s="39"/>
       <c r="K57" s="39"/>
       <c r="L57" s="39"/>
-      <c r="M57" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="M57" s="39"/>
       <c r="N57" s="39"/>
       <c r="O57" s="39"/>
       <c r="P57" s="39"/>
@@ -6310,7 +6193,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="289" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>57</v>
       </c>
@@ -6333,18 +6216,10 @@
       <c r="J58" s="39"/>
       <c r="K58" s="39"/>
       <c r="L58" s="39"/>
-      <c r="M58" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N58" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="O58" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="P58" s="39" t="s">
-        <v>402</v>
-      </c>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
       <c r="Q58" s="39"/>
       <c r="R58" s="42"/>
       <c r="S58" s="40"/>
@@ -6352,7 +6227,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>58</v>
       </c>
@@ -6386,7 +6261,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>59</v>
       </c>
@@ -6420,7 +6295,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <v>60</v>
       </c>
@@ -6454,7 +6329,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>61</v>
       </c>
@@ -6488,7 +6363,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <v>62</v>
       </c>
@@ -6522,7 +6397,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <v>63</v>
       </c>
@@ -6556,7 +6431,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <v>64</v>
       </c>
@@ -6590,7 +6465,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <v>65</v>
       </c>
@@ -6624,7 +6499,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <v>66</v>
       </c>
@@ -6658,7 +6533,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
         <v>67</v>
       </c>
@@ -6692,7 +6567,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
         <v>68</v>
       </c>
@@ -6726,7 +6601,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
         <v>69</v>
       </c>
@@ -6760,7 +6635,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
         <v>70</v>
       </c>
@@ -6794,7 +6669,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
         <v>71</v>
       </c>
@@ -6828,7 +6703,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
         <v>72</v>
       </c>
@@ -6862,7 +6737,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
         <v>73</v>
       </c>
@@ -6896,7 +6771,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="241" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="128" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
         <v>74</v>
       </c>
@@ -6930,7 +6805,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
         <v>75</v>
       </c>
@@ -6947,16 +6822,16 @@
         <v>161</v>
       </c>
       <c r="F76" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G76" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="H76" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="H76" s="38" t="s">
-        <v>363</v>
-      </c>
       <c r="I76" s="38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J76" s="39" t="s">
         <v>84</v>
@@ -6969,13 +6844,13 @@
         <v>84</v>
       </c>
       <c r="N76" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O76" s="39" t="s">
         <v>84</v>
       </c>
       <c r="P76" s="42" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="Q76" s="39"/>
       <c r="R76" s="42"/>
@@ -6986,7 +6861,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>76</v>
       </c>
@@ -7003,16 +6878,16 @@
         <v>163</v>
       </c>
       <c r="F77" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G77" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="H77" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="H77" s="38" t="s">
-        <v>366</v>
-      </c>
       <c r="I77" s="38" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J77" s="39" t="s">
         <v>84</v>
@@ -7025,13 +6900,13 @@
         <v>84</v>
       </c>
       <c r="N77" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O77" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P77" s="42" t="s">
-        <v>402</v>
+      <c r="P77" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q77" s="39"/>
       <c r="R77" s="42"/>
@@ -7040,7 +6915,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
         <v>77</v>
       </c>
@@ -7057,16 +6932,16 @@
         <v>165</v>
       </c>
       <c r="F78" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G78" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="H78" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="H78" s="38" t="s">
-        <v>369</v>
-      </c>
       <c r="I78" s="38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J78" s="39" t="s">
         <v>84</v>
@@ -7079,13 +6954,13 @@
         <v>84</v>
       </c>
       <c r="N78" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O78" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P78" s="42" t="s">
-        <v>402</v>
+      <c r="P78" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q78" s="39"/>
       <c r="R78" s="42"/>
@@ -7094,7 +6969,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
         <v>78</v>
       </c>
@@ -7111,16 +6986,16 @@
         <v>167</v>
       </c>
       <c r="F79" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G79" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="H79" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="H79" s="38" t="s">
-        <v>372</v>
-      </c>
       <c r="I79" s="38" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J79" s="39" t="s">
         <v>84</v>
@@ -7133,13 +7008,13 @@
         <v>84</v>
       </c>
       <c r="N79" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O79" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P79" s="42" t="s">
-        <v>402</v>
+      <c r="P79" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q79" s="39"/>
       <c r="R79" s="42"/>
@@ -7148,7 +7023,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
         <v>79</v>
       </c>
@@ -7165,16 +7040,16 @@
         <v>169</v>
       </c>
       <c r="F80" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G80" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="H80" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="H80" s="38" t="s">
-        <v>375</v>
-      </c>
       <c r="I80" s="38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J80" s="39" t="s">
         <v>84</v>
@@ -7187,13 +7062,13 @@
         <v>84</v>
       </c>
       <c r="N80" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O80" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P80" s="42" t="s">
-        <v>402</v>
+      <c r="P80" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q80" s="39"/>
       <c r="R80" s="42"/>
@@ -7202,7 +7077,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
         <v>80</v>
       </c>
@@ -7219,16 +7094,16 @@
         <v>171</v>
       </c>
       <c r="F81" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G81" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="H81" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="H81" s="38" t="s">
-        <v>378</v>
-      </c>
       <c r="I81" s="38" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J81" s="39" t="s">
         <v>84</v>
@@ -7241,13 +7116,13 @@
         <v>84</v>
       </c>
       <c r="N81" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O81" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P81" s="42" t="s">
-        <v>402</v>
+      <c r="P81" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q81" s="39"/>
       <c r="R81" s="42"/>
@@ -7256,7 +7131,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
         <v>81</v>
       </c>
@@ -7273,16 +7148,16 @@
         <v>173</v>
       </c>
       <c r="F82" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H82" s="38" t="s">
         <v>382</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J82" s="39" t="s">
         <v>84</v>
@@ -7295,13 +7170,13 @@
         <v>84</v>
       </c>
       <c r="N82" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O82" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P82" s="42" t="s">
-        <v>402</v>
+      <c r="P82" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q82" s="39"/>
       <c r="R82" s="42"/>
@@ -7310,7 +7185,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
         <v>82</v>
       </c>
@@ -7327,16 +7202,16 @@
         <v>175</v>
       </c>
       <c r="F83" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G83" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="H83" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="H83" s="38" t="s">
-        <v>384</v>
-      </c>
       <c r="I83" s="38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J83" s="39" t="s">
         <v>84</v>
@@ -7349,13 +7224,13 @@
         <v>84</v>
       </c>
       <c r="N83" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O83" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P83" s="42" t="s">
-        <v>402</v>
+      <c r="P83" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q83" s="39"/>
       <c r="R83" s="42"/>
@@ -7364,7 +7239,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
         <v>83</v>
       </c>
@@ -7381,16 +7256,16 @@
         <v>177</v>
       </c>
       <c r="F84" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G84" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="H84" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="H84" s="38" t="s">
-        <v>387</v>
-      </c>
       <c r="I84" s="38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J84" s="39" t="s">
         <v>84</v>
@@ -7403,13 +7278,13 @@
         <v>84</v>
       </c>
       <c r="N84" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O84" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P84" s="42" t="s">
-        <v>402</v>
+      <c r="P84" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q84" s="39"/>
       <c r="R84" s="42"/>
@@ -7418,7 +7293,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
         <v>84</v>
       </c>
@@ -7435,16 +7310,16 @@
         <v>179</v>
       </c>
       <c r="F85" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G85" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="H85" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="H85" s="38" t="s">
-        <v>390</v>
-      </c>
       <c r="I85" s="38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J85" s="39" t="s">
         <v>84</v>
@@ -7457,13 +7332,13 @@
         <v>84</v>
       </c>
       <c r="N85" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O85" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P85" s="42" t="s">
-        <v>402</v>
+      <c r="P85" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q85" s="39"/>
       <c r="R85" s="42"/>
@@ -7472,7 +7347,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="289" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
         <v>85</v>
       </c>
@@ -7489,16 +7364,16 @@
         <v>181</v>
       </c>
       <c r="F86" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G86" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="H86" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="H86" s="38" t="s">
-        <v>393</v>
-      </c>
       <c r="I86" s="38" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J86" s="39" t="s">
         <v>84</v>
@@ -7511,13 +7386,13 @@
         <v>84</v>
       </c>
       <c r="N86" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O86" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P86" s="42" t="s">
-        <v>402</v>
+      <c r="P86" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q86" s="39"/>
       <c r="R86" s="42"/>
@@ -7526,7 +7401,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
         <v>86</v>
       </c>
@@ -7566,7 +7441,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="241" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="145" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
         <v>87</v>
       </c>
@@ -7606,7 +7481,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
         <v>88</v>
       </c>
@@ -7646,7 +7521,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="34">
         <v>89</v>
       </c>
@@ -7686,7 +7561,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
         <v>90</v>
       </c>
@@ -7726,7 +7601,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="34">
         <v>91</v>
       </c>
@@ -7766,7 +7641,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
         <v>92</v>
       </c>
@@ -7806,7 +7681,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="288" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="272" x14ac:dyDescent="0.2">
       <c r="A94" s="34">
         <v>93</v>
       </c>
@@ -7823,16 +7698,16 @@
         <v>197</v>
       </c>
       <c r="F94" s="37">
-        <v>44985</v>
+        <v>44662</v>
       </c>
       <c r="G94" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="H94" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="H94" s="38" t="s">
-        <v>396</v>
-      </c>
       <c r="I94" s="38" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J94" s="39" t="s">
         <v>84</v>
@@ -7845,13 +7720,13 @@
         <v>84</v>
       </c>
       <c r="N94" s="39" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="O94" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P94" s="42" t="s">
-        <v>402</v>
+      <c r="P94" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="Q94" s="39"/>
       <c r="R94" s="42"/>
@@ -7860,7 +7735,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="34">
         <v>94</v>
       </c>
@@ -7894,7 +7769,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="34">
         <v>95</v>
       </c>
@@ -7928,7 +7803,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="34">
         <v>96</v>
       </c>
@@ -7962,7 +7837,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="34">
         <v>97</v>
       </c>
@@ -7996,7 +7871,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="34">
         <v>98</v>
       </c>
@@ -8030,7 +7905,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="34">
         <v>99</v>
       </c>
@@ -8064,7 +7939,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="34">
         <v>100</v>
       </c>
@@ -8098,7 +7973,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="34">
         <v>101</v>
       </c>
@@ -8132,7 +8007,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="34">
         <v>102</v>
       </c>
@@ -8166,7 +8041,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="34">
         <v>103</v>
       </c>
@@ -8200,7 +8075,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="34">
         <v>104</v>
       </c>
@@ -8234,7 +8109,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="34">
         <v>105</v>
       </c>
@@ -8268,7 +8143,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="34">
         <v>106</v>
       </c>
@@ -8302,7 +8177,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="34">
         <v>107</v>
       </c>
@@ -8336,7 +8211,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="34">
         <v>108</v>
       </c>
@@ -8370,7 +8245,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="34">
         <v>109</v>
       </c>
@@ -8404,7 +8279,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="34">
         <v>110</v>
       </c>
@@ -8438,7 +8313,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34">
         <v>111</v>
       </c>
@@ -8472,7 +8347,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="34">
         <v>112</v>
       </c>
@@ -8506,7 +8381,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="34">
         <v>113</v>
       </c>
@@ -8540,7 +8415,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="34">
         <v>114</v>
       </c>
@@ -8574,7 +8449,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="34">
         <v>115</v>
       </c>
@@ -8608,7 +8483,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="34">
         <v>116</v>
       </c>
@@ -8642,7 +8517,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="34">
         <v>117</v>
       </c>
@@ -8676,7 +8551,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="34">
         <v>118</v>
       </c>
@@ -8710,7 +8585,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="34">
         <v>119</v>
       </c>
@@ -8744,7 +8619,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="34">
         <v>120</v>
       </c>
@@ -8778,7 +8653,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="34">
         <v>121</v>
       </c>
@@ -8812,7 +8687,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="34">
         <v>122</v>
       </c>
@@ -8846,7 +8721,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="34">
         <v>123</v>
       </c>
@@ -8880,7 +8755,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="34">
         <v>124</v>
       </c>
@@ -8914,7 +8789,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="34">
         <v>125</v>
       </c>
@@ -8948,7 +8823,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="34">
         <v>126</v>
       </c>
@@ -8982,7 +8857,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="34">
         <v>127</v>
       </c>
@@ -9016,7 +8891,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="34">
         <v>128</v>
       </c>
@@ -9050,7 +8925,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="34">
         <v>129</v>
       </c>
@@ -9084,7 +8959,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="34">
         <v>130</v>
       </c>
@@ -9118,7 +8993,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="34">
         <v>131</v>
       </c>
@@ -9152,7 +9027,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="34">
         <v>132</v>
       </c>
@@ -9186,7 +9061,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34">
         <v>133</v>
       </c>
@@ -9220,7 +9095,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="34">
         <v>134</v>
       </c>
@@ -9254,7 +9129,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="34">
         <v>135</v>
       </c>
@@ -9288,7 +9163,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="34">
         <v>136</v>
       </c>
@@ -9322,7 +9197,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="34">
         <v>137</v>
       </c>
@@ -9356,7 +9231,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="34">
         <v>138</v>
       </c>
@@ -9390,7 +9265,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="34">
         <v>139</v>
       </c>
@@ -9424,7 +9299,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="34">
         <v>140</v>
       </c>
@@ -9458,7 +9333,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="34">
         <v>141</v>
       </c>
@@ -9492,7 +9367,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="34">
         <v>142</v>
       </c>
@@ -9526,7 +9401,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="34">
         <v>143</v>
       </c>
@@ -9560,7 +9435,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="34">
         <v>144</v>
       </c>
@@ -9594,7 +9469,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="34">
         <v>145</v>
       </c>
@@ -9628,7 +9503,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="34">
         <v>146</v>
       </c>
@@ -24066,7 +23941,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O8 L1:M8 O95:O1048576 O10:O36 L10:M36 L38:L42 L44:L48 L50:L75 M59:M75 O59:O75 O87:O93 L87:M93 L95:M1048576</xm:sqref>
+          <xm:sqref>O10:O1048576 O1:O8 L1:M8 L10:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -26235,17 +26110,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26476,7 +26340,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -26485,24 +26349,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26521,10 +26379,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/accreditamento-checklist_V4.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmontel/Documents/dev/FSE/it-fse-accreditamento/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A./Synapse_Workflow/4.33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07783C5-EF88-E641-9361-85BED5270C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A258D-33F2-0449-AC3D-99C9486B258A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1420" yWindow="-21000" windowWidth="37340" windowHeight="19700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="-21000" windowWidth="34480" windowHeight="19700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -1948,142 +1948,142 @@
     <t>subject_application_version: 4.33</t>
   </si>
   <si>
-    <t>609c43acec9a8506</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:03:07.798Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.8aaedb1b77^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6c3130daeee5c3e9</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:03:08.753Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.573fe22727^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7557d8ff8e80a4df</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:48.1Z[UTC]</t>
-  </si>
-  <si>
-    <t>d56a32dfe29064a1</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:03:06.816Z[UTC]</t>
-  </si>
-  <si>
-    <t>62906e8b9c7c78b3</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:46.376Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.e4b57fb362^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6036da96a2896a6f</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:49.842Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.8e4bb6d8a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2d41dee2c91bfa20</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:51.581Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.2d7125cfb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7b7ab8bc3daee0ab</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:53.12Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.5ad0ab2acf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2af7feebf02a1e22</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:54.655Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.dbe8a5ed98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d3a07e95ab074e7c</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:56.078Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.ecdfc0b2bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>015dd2da803ef958</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:57.615Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.055da97d03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>285afad4227d766f</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:02:59.162Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.138e5a0281^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4e232ec9a1412c1f</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:03:00.601Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.b0d3dea442^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>77284d4b92102d61</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:03:02.178Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.d2062b5f7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>94c61425c0d15bdc</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:03:03.77Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.eef39cde18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ab211ee213884317</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:03:05.336Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.7335c30c60^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-17T13:54:46.588Z[UTC]</t>
+  </si>
+  <si>
+    <t>a4c63ec59d2adb1c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.b4e214fddc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7973d663c01f6099</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:54:48.079Z[UTC]</t>
+  </si>
+  <si>
+    <t>9b9bf59d01f63413</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:54:49.641Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.1b377d1bec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>48ea46d2951264ba</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:54:51.176Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.5290fd3b77^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6b1fdd3bf99bdefd</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:54:52.916Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.1e1b0a2898^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8a0fbc26707ec1e5</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:54:54.963Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.227a1155c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>63aaa954600b24d5</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:54:56.499Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.243960ac1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3725532f4a509372</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:54:58.231Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.195b423cc5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>70399cd43d1a5d73</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:55:00.847Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.a4637d46b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>04012e954aa9ee62</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:55:02.392Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.5ef0572585^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b3e92a6f573b4613</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:55:04.077Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.82aa92f627^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:55:05.699Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.0fbf1673f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e75ad3d19c1c90d5</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:55:07.149Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.ed0bffb38c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>11046be98d9078ac</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:55:09.603Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.9c88545b7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>bd3031724b39edbb</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:55:10.587Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.3.7743.b858460b54cc28b3e4e9c5f50b36baf44ccec41b1051d4a9f9ff662e194e6257.0629414a2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e35662ccb7508da8</t>
+  </si>
+  <si>
+    <t>2023-04-17T13:55:08.47Z[UTC]</t>
+  </si>
+  <si>
+    <t>e28b96df3140ae79</t>
   </si>
 </sst>
 </file>
@@ -2578,7 +2578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2753,6 +2753,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4203,10 +4207,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4217,9 +4221,9 @@
     <col min="4" max="4" width="44.1640625" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="104.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" style="25" customWidth="1"/>
     <col min="10" max="10" width="21.83203125" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.5" style="25" bestFit="1" customWidth="1"/>
@@ -4790,16 +4794,16 @@
         <v>48</v>
       </c>
       <c r="F19" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>84</v>
@@ -4834,16 +4838,16 @@
         <v>50</v>
       </c>
       <c r="F20" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>84</v>
@@ -5430,13 +5434,13 @@
         <v>88</v>
       </c>
       <c r="F37" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I37" s="38" t="s">
         <v>346</v>
@@ -5654,13 +5658,13 @@
         <v>100</v>
       </c>
       <c r="F43" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="I43" s="38" t="s">
         <v>346</v>
@@ -5882,7 +5886,7 @@
         <v>108</v>
       </c>
       <c r="F49" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
@@ -6822,16 +6826,16 @@
         <v>161</v>
       </c>
       <c r="F76" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="J76" s="39" t="s">
         <v>84</v>
@@ -6878,16 +6882,16 @@
         <v>163</v>
       </c>
       <c r="F77" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J77" s="39" t="s">
         <v>84</v>
@@ -6932,16 +6936,16 @@
         <v>165</v>
       </c>
       <c r="F78" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J78" s="39" t="s">
         <v>84</v>
@@ -6986,16 +6990,16 @@
         <v>167</v>
       </c>
       <c r="F79" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J79" s="39" t="s">
         <v>84</v>
@@ -7040,16 +7044,16 @@
         <v>169</v>
       </c>
       <c r="F80" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J80" s="39" t="s">
         <v>84</v>
@@ -7094,16 +7098,16 @@
         <v>171</v>
       </c>
       <c r="F81" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="J81" s="39" t="s">
         <v>84</v>
@@ -7148,16 +7152,16 @@
         <v>173</v>
       </c>
       <c r="F82" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J82" s="39" t="s">
         <v>84</v>
@@ -7202,16 +7206,16 @@
         <v>175</v>
       </c>
       <c r="F83" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="J83" s="39" t="s">
         <v>84</v>
@@ -7256,16 +7260,16 @@
         <v>177</v>
       </c>
       <c r="F84" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="H84" s="38" t="s">
-        <v>388</v>
+        <v>381</v>
+      </c>
+      <c r="H84" s="59" t="s">
+        <v>380</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J84" s="39" t="s">
         <v>84</v>
@@ -7310,16 +7314,16 @@
         <v>179</v>
       </c>
       <c r="F85" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J85" s="39" t="s">
         <v>84</v>
@@ -7364,16 +7368,16 @@
         <v>181</v>
       </c>
       <c r="F86" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G86" s="38" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H86" s="38" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="J86" s="39" t="s">
         <v>84</v>
@@ -7698,16 +7702,16 @@
         <v>197</v>
       </c>
       <c r="F94" s="37">
-        <v>44662</v>
+        <v>45033</v>
       </c>
       <c r="G94" s="38" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H94" s="38" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J94" s="39" t="s">
         <v>84</v>
@@ -26110,6 +26114,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26340,27 +26364,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26379,31 +26408,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
